--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560346/JX560346_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560346/JX560346_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89297727948</v>
+        <v>45441.83324071355</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1274c&gt;g']</t>
+          <t>['1341_1419del', '1344_1396del', '1342_1365insaatagacgatatatccctacagt', '1261_1370del', '1250_1347del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89297730262</v>
+        <v>45441.83324073718</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['212_217insacgac']</t>
+          <t>['233_344insatcaatatccatgctatcgacaaggatgatacatctcgttctgctggatagtgttcagctggctcccatatccgtaaatttacggtaaaccatagcctacatactctcaag', '169_189del', '179_223instgcatataagctgtcagtgccggagttagcgggtagaaactggg', '186_280inscaaactctattaaggtacaacaccagagaaggagttaggcggagactagaaggcaacttcattcgtcttactactactacccaggcagctgtgt', '227_320insagttatacactcgggcctctccccctgtaattttgctacttcccaggaccagcagaagacgcaatcgaacagggatcaaggcaatgagattct']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89297731998</v>
+        <v>45441.83324076034</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['1785c&gt;g']</t>
+          <t>['1786_1814insttggcaaagcgagcgtaatgtcgccatt', '1804_1873inscaaattcggtttcgaagagattggctaaatgacggccggaccggccggtcgggttgcctggcgcattca', '1771_1819insaatagcagatcgtcttttatgtgactataacagctcctatcgctcgag', '1864_1909del', '1783_1895instcctcgctctcacctcgtagacccggactagcagctgatagtcgggatagtggcccgtgatgttctatgcagtatgagatgtcgcataatatcactacgtcactgaacaacg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.8929774382</v>
+        <v>45441.8332407776</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1117_1118del']</t>
+          <t>['1301_1405del', '1199_1319del', '1253_1317instgcagattagtggaataatttcaagcacttagcctctagaacgcatattcaaagcacaaactgt', '1323_1338insaatcgtgtcctaaca', '1217_1234del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['186_189del']</t>
+          <t>['201_242instcaacgcagatctttgcctatcgggttgaaggcggtcgtgg', '235_367del', '174_323insaggtgaaaaactgtagtcactcacgatacctgtagttttgcacacaaatctgaaatcgttcatctgaaatctaacgggttaaatctagtcacggtgtcctaaccatgcttgtacctgtgccctctactgacggatcaaggataattgca', '247_326insagaaactcgaagacagcggagtagcaaagcctacacccaacactgactggaattagccaacgcctaagtcaaagaattg', '250_310del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89297744977</v>
+        <v>45441.83324079541</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1247g&gt;a']</t>
+          <t>['1330_1387del', '1350_1362del', '1246_1391insaaacttagcagcactgtataagacaactagtgtgcgtcctattgggtttatgaagcccagtatactcaccaacagcgcagcgtaccatgcagtagtcgtcaacatcataccgtcgtacctaatgcaccgacctgtctctgatacg', '1223_1305insgttcgcccagtttagtgggctatgtgctcctcatttagacttctggtctatatgcccgctgttagtgcgatgtcgctctcag', '1314_1365del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['1865_1866del']</t>
+          <t>['1779_1904instcggcattacaatcgtgggcacaggttgcctggtcgagaaggctcgcctggcagggggctaccgggcccgcaggattccggaagtaatccactactcgtgacgatactttggaatgtgttgttgc', '1828_1890inscttctagtgcgccagcccagtacatcaaaaaagctgggaggcagaccgcaaatgtaatagtt', '1776_1826insggatcgaaggtctcaattgaagtgaacggcgtgacccgtacctggagatc', '1858_1994del', '1769_1875del']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89297746649</v>
+        <v>45441.83324081324</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['227_230insctg']</t>
+          <t>['221_311del', '241_358insccgtcgtaccacagatccattacgataaccgcttttgactagaccctgtggctctttcgccgcctatagctagaatcgtggagggagcagggagttgcccacgtaaaaataatcata', '170_241insgctcgctacggcgtacatgaccgcaagcgtcatcggtgcaacaaccgcggcgcggtgaaatctccgaacag', '180_266insatggtcaaagtaatcggcacatcacggcccttgatcaaagctcatactgtttgagttccctctctctttcaatctcctgtctccgc', '194_323insgccaggtgaaggaggctcgtaggttagccgatataatggggcagtaatgctaaatcaagttttttggttgtatactaaacgtgaactatgtggccgcttgcagcaacgcagggggtacgagtaccttgt']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['1807_1810insatg']</t>
+          <t>['1773_1875instatttggcaccctagtctttgggctatcaagatacccaccatagattgaatttcctctgacagtaccggtcaccaagaatacaggcacgggctcattctgga', '1795_1941insggtcaatccttcgtcccagctactgggtgcatcaagggcccttatgatttaaagctgaccatcatcgacgagtatgctccggacgcctcgtacacctttcgggtcgtgaaactaattagggacagtcatccgagagaatataaaat', '1769_1791insgagataaggtaagagtatacca', '1837_1909insgtttgttgcaacgtccagaagtgaaacaaaacatcaaccgggtttactcattatatgctaagtgattcaggc', '1837_1849insgccgcccctgtg']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89297748387</v>
+        <v>45441.83324083019</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1129_1130insg']</t>
+          <t>['1109_1156insgcttagttcccgttttgcctagactaccatggtaggccgcacttcgt', '1256_1370del', '1182_1192del', '1175_1313del', '1212_1353insgaaacacaatgaagataccagacgcaccattaggatgcgagctgagggacccgcattcgcgccacgagtgacggcagagatacttctcctcctctgtatgggcagcaacgcacataacctcatactcgcggtgcctggttg']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['173c&gt;a']</t>
+          <t>['169_224del', '227_274del', '192_286instcgttggtatctaggtgcgtttaccttcttagccggacttatgtggactgtagatctcttaataatgtcacgtggtccgactccacacgtactg', '160_260del', '232_260inscaactgagatcatgacgtacgagagccg']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['1839_1842del']</t>
+          <t>['1858_1958del', '1867_2014insagatcccacaggcactcacccagctttaacttatttcgagacacggacggcgggacgagtaaaccctttatgttcaaagaagtgccctcacgcggttaatacggagataactcctaccatggcggacatctagggtctgaactgatc', '1781_1824insgtatagactacttatcagccccacatgacgcgccatagagatg', '1856_1986del', '1828_1877del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89297750123</v>
+        <v>45441.83324084755</v>
       </c>
     </row>
   </sheetData>
